--- a/components/GiraldoDario_C201601Wk3_Time Estimation.xlsx
+++ b/components/GiraldoDario_C201601Wk3_Time Estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="WK3_Schedule" sheetId="1" r:id="rId1"/>
@@ -39,22 +39,6 @@
     <t>Time Difference</t>
   </si>
   <si>
-    <t>Burn-Up List -Del</t>
-  </si>
-  <si>
-    <t>A Call To Action - Failure to Success Story -Del</t>
-  </si>
-  <si>
-    <t>SOWT Analysis -Del
-Anchor Points</t>
-  </si>
-  <si>
-    <t>Mission Statement</t>
-  </si>
-  <si>
-    <t>Failure To Success Responses</t>
-  </si>
-  <si>
     <t>Project Deliverable</t>
   </si>
   <si>
@@ -167,10 +151,24 @@
   </si>
   <si>
     <t>GoTo Meeting
-Career Module -Branding
-What Is Portfolio
-How Do I Create an ePortfolio?
-Self-Evaluation SWOT -Start</t>
+Career Module -Quiz Plus LinkedIn
+Communicating With Clarity
+Communicating With Visual Tools</t>
+  </si>
+  <si>
+    <t>Ancor Points</t>
+  </si>
+  <si>
+    <t>A Call To Action - Encouragement</t>
+  </si>
+  <si>
+    <t>Flowchart</t>
+  </si>
+  <si>
+    <t>Encouragement Responses</t>
+  </si>
+  <si>
+    <t>Burn-Up List</t>
   </si>
 </sst>
 </file>
@@ -818,13 +816,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="B1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
@@ -867,7 +865,7 @@
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2</v>
@@ -891,18 +889,18 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="98">
+    <row r="7" spans="1:6" ht="56">
       <c r="A7" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13">
         <f>C7-D7</f>
@@ -912,63 +910,67 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C8" s="12">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="12"/>
       <c r="E8" s="14">
         <f t="shared" ref="E8:E13" si="0">C8-D8</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="28">
+    <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" s="12">
         <v>6</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
       <c r="E9" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="28">
+    <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12">
         <v>7</v>
-      </c>
-      <c r="C10" s="12">
-        <v>9</v>
       </c>
       <c r="D10" s="12">
         <v>6.5</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" s="12">
         <v>4</v>
@@ -982,12 +984,12 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="28">
+    <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12" s="12">
         <v>5</v>
@@ -1003,20 +1005,20 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="12">
         <v>9</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F13" s="7"/>
     </row>
